--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101134</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24401.71166855524</v>
+        <v>1751349.433130901</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24401.71166855524</v>
+        <v>1751349.433130901</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495856190.819854</v>
+        <v>60186065.6582739</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13277.17850320236</v>
+        <v>1405179.355406359</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25484.24095517755</v>
+        <v>2633071.969730638</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37691.30340715271</v>
+        <v>3860964.58405492</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50536.91581315525</v>
+        <v>5048005.663135137</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63382.52821915776</v>
+        <v>6235046.742215356</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76228.14062516029</v>
+        <v>7422087.821295571</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89073.75303116279</v>
+        <v>8609128.900375782</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101919.3654371653</v>
+        <v>9796169.979455994</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115115.1994722047</v>
+        <v>10928548.84999642</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127766.7044982503</v>
+        <v>12121767.60280237</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140418.2095242986</v>
+        <v>13314986.35560803</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>153069.7145503461</v>
+        <v>14508205.10841379</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165721.2195763935</v>
+        <v>15701423.86121955</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178993.6258550707</v>
+        <v>16833835.03003413</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192896.0729751099</v>
+        <v>17907685.53157069</v>
       </c>
     </row>
   </sheetData>
